--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgi2-Adam11.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgi2-Adam11.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Lgi2</t>
+  </si>
+  <si>
+    <t>Adam11</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Lgi2</t>
-  </si>
-  <si>
-    <t>Adam11</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -528,55 +528,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.02053466666666667</v>
+        <v>10.27464766666667</v>
       </c>
       <c r="H2">
-        <v>0.061604</v>
+        <v>30.823943</v>
       </c>
       <c r="I2">
-        <v>0.001930134604048101</v>
+        <v>0.9550701914680073</v>
       </c>
       <c r="J2">
-        <v>0.001930134604048101</v>
+        <v>0.9550701914680074</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1162103333333333</v>
+        <v>0.1795736666666667</v>
       </c>
       <c r="N2">
-        <v>0.348631</v>
+        <v>0.538721</v>
       </c>
       <c r="O2">
-        <v>0.04629488601196787</v>
+        <v>0.06721938218475064</v>
       </c>
       <c r="P2">
-        <v>0.04629488601196787</v>
+        <v>0.06721938218475064</v>
       </c>
       <c r="Q2">
-        <v>0.002386340458222222</v>
+        <v>1.845056155211444</v>
       </c>
       <c r="R2">
-        <v>0.021477064124</v>
+        <v>16.605505396903</v>
       </c>
       <c r="S2">
-        <v>8.935536148216156E-05</v>
+        <v>0.06419922821355095</v>
       </c>
       <c r="T2">
-        <v>8.935536148216156E-05</v>
+        <v>0.06419922821355097</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.02053466666666667</v>
+        <v>10.27464766666667</v>
       </c>
       <c r="H3">
-        <v>0.061604</v>
+        <v>30.823943</v>
       </c>
       <c r="I3">
-        <v>0.001930134604048101</v>
+        <v>0.9550701914680073</v>
       </c>
       <c r="J3">
-        <v>0.001930134604048101</v>
+        <v>0.9550701914680074</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.9512</v>
       </c>
       <c r="O3">
-        <v>0.3918913338128842</v>
+        <v>0.3682385515018647</v>
       </c>
       <c r="P3">
-        <v>0.3918913338128841</v>
+        <v>0.3682385515018648</v>
       </c>
       <c r="Q3">
-        <v>0.02020063608888889</v>
+        <v>10.10751339795556</v>
       </c>
       <c r="R3">
-        <v>0.1818057248</v>
+        <v>90.9676205816</v>
       </c>
       <c r="S3">
-        <v>0.0007564030244188132</v>
+        <v>0.3516936638887876</v>
       </c>
       <c r="T3">
-        <v>0.0007564030244188131</v>
+        <v>0.3516936638887877</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +652,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.02053466666666667</v>
+        <v>10.27464766666667</v>
       </c>
       <c r="H4">
-        <v>0.061604</v>
+        <v>30.823943</v>
       </c>
       <c r="I4">
-        <v>0.001930134604048101</v>
+        <v>0.9550701914680073</v>
       </c>
       <c r="J4">
-        <v>0.001930134604048101</v>
+        <v>0.9550701914680074</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.386985666666667</v>
+        <v>1.481553</v>
       </c>
       <c r="N4">
-        <v>4.160957</v>
+        <v>4.444659</v>
       </c>
       <c r="O4">
-        <v>0.5525355749078534</v>
+        <v>0.5545861995390778</v>
       </c>
       <c r="P4">
-        <v>0.5525355749078533</v>
+        <v>0.554586199539078</v>
       </c>
       <c r="Q4">
-        <v>0.02848128833644445</v>
+        <v>15.222435074493</v>
       </c>
       <c r="R4">
-        <v>0.256331595028</v>
+        <v>137.001915670437</v>
       </c>
       <c r="S4">
-        <v>0.001066468033097259</v>
+        <v>0.5296687477793016</v>
       </c>
       <c r="T4">
-        <v>0.001066468033097259</v>
+        <v>0.5296687477793017</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,25 +714,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.02053466666666667</v>
+        <v>10.27464766666667</v>
       </c>
       <c r="H5">
-        <v>0.061604</v>
+        <v>30.823943</v>
       </c>
       <c r="I5">
-        <v>0.001930134604048101</v>
+        <v>0.9550701914680073</v>
       </c>
       <c r="J5">
-        <v>0.001930134604048101</v>
+        <v>0.9550701914680074</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02329033333333333</v>
+        <v>0.02659666666666667</v>
       </c>
       <c r="N5">
-        <v>0.069871</v>
+        <v>0.07979</v>
       </c>
       <c r="O5">
-        <v>0.009278205267294668</v>
+        <v>0.009955866774306651</v>
       </c>
       <c r="P5">
-        <v>0.009278205267294668</v>
+        <v>0.009955866774306652</v>
       </c>
       <c r="Q5">
-        <v>0.0004782592315555555</v>
+        <v>0.2732713791077778</v>
       </c>
       <c r="R5">
-        <v>0.004304333084</v>
+        <v>2.45944241197</v>
       </c>
       <c r="S5">
-        <v>1.79081850498668E-05</v>
+        <v>0.009508551586367025</v>
       </c>
       <c r="T5">
-        <v>1.79081850498668E-05</v>
+        <v>0.009508551586367028</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.27464766666667</v>
+        <v>0.475652</v>
       </c>
       <c r="H6">
-        <v>30.823943</v>
+        <v>1.426956</v>
       </c>
       <c r="I6">
-        <v>0.9657548051669733</v>
+        <v>0.04421378342596928</v>
       </c>
       <c r="J6">
-        <v>0.9657548051669733</v>
+        <v>0.04421378342596929</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1162103333333333</v>
+        <v>0.1795736666666667</v>
       </c>
       <c r="N6">
-        <v>0.348631</v>
+        <v>0.538721</v>
       </c>
       <c r="O6">
-        <v>0.04629488601196787</v>
+        <v>0.06721938218475064</v>
       </c>
       <c r="P6">
-        <v>0.04629488601196787</v>
+        <v>0.06721938218475064</v>
       </c>
       <c r="Q6">
-        <v>1.194020230225889</v>
+        <v>0.08541457369733332</v>
       </c>
       <c r="R6">
-        <v>10.746182072033</v>
+        <v>0.768731163276</v>
       </c>
       <c r="S6">
-        <v>0.04470950862071527</v>
+        <v>0.002972023205944023</v>
       </c>
       <c r="T6">
-        <v>0.04470950862071527</v>
+        <v>0.002972023205944023</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.27464766666667</v>
+        <v>0.475652</v>
       </c>
       <c r="H7">
-        <v>30.823943</v>
+        <v>1.426956</v>
       </c>
       <c r="I7">
-        <v>0.9657548051669733</v>
+        <v>0.04421378342596928</v>
       </c>
       <c r="J7">
-        <v>0.9657548051669733</v>
+        <v>0.04421378342596929</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>2.9512</v>
       </c>
       <c r="O7">
-        <v>0.3918913338128842</v>
+        <v>0.3682385515018647</v>
       </c>
       <c r="P7">
-        <v>0.3918913338128841</v>
+        <v>0.3682385515018648</v>
       </c>
       <c r="Q7">
-        <v>10.10751339795556</v>
+        <v>0.4679147274666666</v>
       </c>
       <c r="R7">
-        <v>90.9676205816</v>
+        <v>4.2112325472</v>
       </c>
       <c r="S7">
-        <v>0.3784709387330872</v>
+        <v>0.01628121956519608</v>
       </c>
       <c r="T7">
-        <v>0.3784709387330872</v>
+        <v>0.01628121956519609</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.27464766666667</v>
+        <v>0.475652</v>
       </c>
       <c r="H8">
-        <v>30.823943</v>
+        <v>1.426956</v>
       </c>
       <c r="I8">
-        <v>0.9657548051669733</v>
+        <v>0.04421378342596928</v>
       </c>
       <c r="J8">
-        <v>0.9657548051669733</v>
+        <v>0.04421378342596929</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.386985666666667</v>
+        <v>1.481553</v>
       </c>
       <c r="N8">
-        <v>4.160957</v>
+        <v>4.444659</v>
       </c>
       <c r="O8">
-        <v>0.5525355749078534</v>
+        <v>0.5545861995390778</v>
       </c>
       <c r="P8">
-        <v>0.5525355749078533</v>
+        <v>0.554586199539078</v>
       </c>
       <c r="Q8">
-        <v>14.25078904371678</v>
+        <v>0.7047036475559999</v>
       </c>
       <c r="R8">
-        <v>128.257101393451</v>
+        <v>6.342332828003999</v>
       </c>
       <c r="S8">
-        <v>0.5336138864929556</v>
+        <v>0.02452035411745217</v>
       </c>
       <c r="T8">
-        <v>0.5336138864929555</v>
+        <v>0.02452035411745218</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.27464766666667</v>
+        <v>0.475652</v>
       </c>
       <c r="H9">
-        <v>30.823943</v>
+        <v>1.426956</v>
       </c>
       <c r="I9">
-        <v>0.9657548051669733</v>
+        <v>0.04421378342596928</v>
       </c>
       <c r="J9">
-        <v>0.9657548051669733</v>
+        <v>0.04421378342596929</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.02329033333333333</v>
+        <v>0.02659666666666667</v>
       </c>
       <c r="N9">
-        <v>0.069871</v>
+        <v>0.07979</v>
       </c>
       <c r="O9">
-        <v>0.009278205267294668</v>
+        <v>0.009955866774306651</v>
       </c>
       <c r="P9">
-        <v>0.009278205267294668</v>
+        <v>0.009955866774306652</v>
       </c>
       <c r="Q9">
-        <v>0.2392999690392222</v>
+        <v>0.01265075769333333</v>
       </c>
       <c r="R9">
-        <v>2.153699721353</v>
+        <v>0.11385681924</v>
       </c>
       <c r="S9">
-        <v>0.008960471320215348</v>
+        <v>0.0004401865373769976</v>
       </c>
       <c r="T9">
-        <v>0.008960471320215348</v>
+        <v>0.0004401865373769978</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,55 +1024,55 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.3437993333333333</v>
+        <v>0.007703000000000001</v>
       </c>
       <c r="H10">
-        <v>1.031398</v>
+        <v>0.023109</v>
       </c>
       <c r="I10">
-        <v>0.03231506022897868</v>
+        <v>0.0007160251060233982</v>
       </c>
       <c r="J10">
-        <v>0.03231506022897868</v>
+        <v>0.0007160251060233983</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1162103333333333</v>
+        <v>0.1795736666666667</v>
       </c>
       <c r="N10">
-        <v>0.348631</v>
+        <v>0.538721</v>
       </c>
       <c r="O10">
-        <v>0.04629488601196787</v>
+        <v>0.06721938218475064</v>
       </c>
       <c r="P10">
-        <v>0.04629488601196787</v>
+        <v>0.06721938218475064</v>
       </c>
       <c r="Q10">
-        <v>0.03995303512644444</v>
+        <v>0.001383255954333333</v>
       </c>
       <c r="R10">
-        <v>0.359577316138</v>
+        <v>0.012449303589</v>
       </c>
       <c r="S10">
-        <v>0.001496022029770444</v>
+        <v>4.81307652556634E-05</v>
       </c>
       <c r="T10">
-        <v>0.001496022029770444</v>
+        <v>4.81307652556634E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,25 +1086,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.3437993333333333</v>
+        <v>0.007703000000000001</v>
       </c>
       <c r="H11">
-        <v>1.031398</v>
+        <v>0.023109</v>
       </c>
       <c r="I11">
-        <v>0.03231506022897868</v>
+        <v>0.0007160251060233982</v>
       </c>
       <c r="J11">
-        <v>0.03231506022897868</v>
+        <v>0.0007160251060233983</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>2.9512</v>
       </c>
       <c r="O11">
-        <v>0.3918913338128842</v>
+        <v>0.3682385515018647</v>
       </c>
       <c r="P11">
-        <v>0.3918913338128841</v>
+        <v>0.3682385515018648</v>
       </c>
       <c r="Q11">
-        <v>0.3382068641777778</v>
+        <v>0.007577697866666668</v>
       </c>
       <c r="R11">
-        <v>3.0438617776</v>
+        <v>0.0681992808</v>
       </c>
       <c r="S11">
-        <v>0.01266399205537814</v>
+        <v>0.0002636680478810253</v>
       </c>
       <c r="T11">
-        <v>0.01266399205537814</v>
+        <v>0.0002636680478810254</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,25 +1148,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.3437993333333333</v>
+        <v>0.007703000000000001</v>
       </c>
       <c r="H12">
-        <v>1.031398</v>
+        <v>0.023109</v>
       </c>
       <c r="I12">
-        <v>0.03231506022897868</v>
+        <v>0.0007160251060233982</v>
       </c>
       <c r="J12">
-        <v>0.03231506022897868</v>
+        <v>0.0007160251060233983</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.386985666666667</v>
+        <v>1.481553</v>
       </c>
       <c r="N12">
-        <v>4.160957</v>
+        <v>4.444659</v>
       </c>
       <c r="O12">
-        <v>0.5525355749078534</v>
+        <v>0.5545861995390778</v>
       </c>
       <c r="P12">
-        <v>0.5525355749078533</v>
+        <v>0.554586199539078</v>
       </c>
       <c r="Q12">
-        <v>0.4768447475428889</v>
+        <v>0.011412402759</v>
       </c>
       <c r="R12">
-        <v>4.291602727886</v>
+        <v>0.102711624831</v>
       </c>
       <c r="S12">
-        <v>0.01785522038180064</v>
+        <v>0.0003970976423240817</v>
       </c>
       <c r="T12">
-        <v>0.01785522038180064</v>
+        <v>0.0003970976423240818</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,25 +1210,25 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.3437993333333333</v>
+        <v>0.007703000000000001</v>
       </c>
       <c r="H13">
-        <v>1.031398</v>
+        <v>0.023109</v>
       </c>
       <c r="I13">
-        <v>0.03231506022897868</v>
+        <v>0.0007160251060233982</v>
       </c>
       <c r="J13">
-        <v>0.03231506022897868</v>
+        <v>0.0007160251060233983</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.02329033333333333</v>
+        <v>0.02659666666666667</v>
       </c>
       <c r="N13">
-        <v>0.069871</v>
+        <v>0.07979</v>
       </c>
       <c r="O13">
-        <v>0.009278205267294668</v>
+        <v>0.009955866774306651</v>
       </c>
       <c r="P13">
-        <v>0.009278205267294668</v>
+        <v>0.009955866774306652</v>
       </c>
       <c r="Q13">
-        <v>0.008007201073111111</v>
+        <v>0.0002048741233333334</v>
       </c>
       <c r="R13">
-        <v>0.07206480965800001</v>
+        <v>0.00184386711</v>
       </c>
       <c r="S13">
-        <v>0.0002998257620294545</v>
+        <v>7.128650562627747E-06</v>
       </c>
       <c r="T13">
-        <v>0.0002998257620294545</v>
+        <v>7.12865056262775E-06</v>
       </c>
     </row>
   </sheetData>
